--- a/ExcelReportGenerator.Samples/Reports/Templates/GroupingWithPanelHierarchy.xlsx
+++ b/ExcelReportGenerator.Samples/Reports/Templates/GroupingWithPanelHierarchy.xlsx
@@ -180,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -279,49 +279,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -355,12 +312,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -373,25 +324,16 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -401,13 +343,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -714,7 +671,7 @@
   <dimension ref="A2:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,46 +685,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -782,31 +739,31 @@
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="2"/>
@@ -815,29 +772,29 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="2"/>
@@ -845,21 +802,21 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="9" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="2"/>
@@ -867,29 +824,29 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">

--- a/ExcelReportGenerator.Samples/Reports/Templates/GroupingWithPanelHierarchy.xlsx
+++ b/ExcelReportGenerator.Samples/Reports/Templates/GroupingWithPanelHierarchy.xlsx
@@ -72,9 +72,6 @@
     <t>{di:Rate}</t>
   </si>
   <si>
-    <t>{m:ConvertGender(di:Gender)}</t>
-  </si>
-  <si>
     <t>Report time: {sf:Format(sv:RenderDate, "g")}</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>{di:di}</t>
+  </si>
+  <si>
+    <t>{m:ConvertGender(di:Sex)}</t>
   </si>
 </sst>
 </file>
@@ -337,6 +337,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -357,15 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +671,7 @@
   <dimension ref="A2:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,46 +685,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="B3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -740,7 +740,7 @@
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>13</v>
@@ -803,21 +803,21 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
-      <c r="C7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -835,22 +835,22 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="24" t="s">
+      <c r="B9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>18</v>
+      <c r="J9" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">

--- a/ExcelReportGenerator.Samples/Reports/Templates/GroupingWithPanelHierarchy.xlsx
+++ b/ExcelReportGenerator.Samples/Reports/Templates/GroupingWithPanelHierarchy.xlsx
@@ -359,13 +359,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +671,7 @@
   <dimension ref="A2:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,11 +857,10 @@
       <c r="B10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B3:R3"/>
-    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
